--- a/12)_RPA/SU_아시히뉴스/Excel/outPut/2022-10-09.xlsx
+++ b/12)_RPA/SU_아시히뉴스/Excel/outPut/2022-10-09.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1020a\OneDrive\바탕 화면\study\12)_RPA\SU_아시히뉴스\Excel\outPut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BCA7B2-A39A-4F48-9DA0-8823895990CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E197217-44EF-46C0-A25D-12149E282B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15420" yWindow="-15405" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,34 +41,34 @@
     <t>https://www.asahi.com/articles/ASQB27X89QB2UHBI04G.html?iref=comtop_7_02</t>
   </si>
   <si>
+    <t>コロナワクチンに応用されたmRNA研究に貢献　古市泰宏さんが死去</t>
+  </si>
+  <si>
+    <t>https://www.asahi.com/articles/ASQB96D14QB9UTFL004.html?iref=comtop_7_03</t>
+  </si>
+  <si>
     <t>「選挙で落としてやる」　兵庫・明石市長、問責案巡り市議2人に暴言</t>
   </si>
   <si>
-    <t>https://www.asahi.com/articles/ASQB956VNQB9OXIE00X.html?iref=comtop_7_03</t>
-  </si>
-  <si>
-    <t>4台が囲む黒塗りの車　迫る共産党大会、厳戒の北京で準備会議始まる</t>
-  </si>
-  <si>
-    <t>https://www.asahi.com/articles/ASQB93QV0QB9UHBI002.html?iref=comtop_7_04</t>
+    <t>https://www.asahi.com/articles/ASQB956VNQB9OXIE00X.html?iref=comtop_7_04</t>
+  </si>
+  <si>
+    <t>華やかな夜の街から牛飼いへ　人生を変えた父からの手紙と彼女の一言</t>
+  </si>
+  <si>
+    <t>https://www.asahi.com/articles/ASQB57WP7QB3TLTB00W.html?iref=comtop_7_05</t>
   </si>
   <si>
     <t>16歳少女が不審死　母「殺された」　髪を隠す布めぐるデモで新疑惑</t>
   </si>
   <si>
-    <t>https://www.asahi.com/articles/ASQB8050YQB6UHBI03D.html?iref=comtop_7_05</t>
-  </si>
-  <si>
-    <t>米ディズニーランド、業績急回復　「数」から「質」へのシフトが奏功</t>
-  </si>
-  <si>
-    <t>https://www.asahi.com/articles/ASQB65H7MQ9ZUHBI00P.html?iref=comtop_7_06</t>
-  </si>
-  <si>
-    <t>「もう、言ってもいいよな」三男の犠牲　10年後、長男は切り出した</t>
-  </si>
-  <si>
-    <t>https://www.asahi.com/articles/ASQB31F5JQ9SUNHB002.html?iref=comtop_7_07</t>
+    <t>https://www.asahi.com/articles/ASQB8050YQB6UHBI03D.html?iref=comtop_7_06</t>
+  </si>
+  <si>
+    <t>「年内入試」さらに増加へ　生徒も保護者も早く受験を終えたい理由は</t>
+  </si>
+  <si>
+    <t>https://www.asahi.com/articles/ASQB94KBKQB4USPT00G.html?iref=comtop_7_07</t>
   </si>
 </sst>
 </file>
